--- a/biology/Zoologie/Azuré_platiné/Azuré_platiné.xlsx
+++ b/biology/Zoologie/Azuré_platiné/Azuré_platiné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_platin%C3%A9</t>
+          <t>Azuré_platiné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus  nivescens
 L’Azuré platiné (Polyommatus nivescens) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Polyommatus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_platin%C3%A9</t>
+          <t>Azuré_platiné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus  nivescens a été nommé par Wilhelm Moritz Keferstein en 1851.
 Combinaison: Plebicula nivescens. Plebicula est le sous-genre.
-Noms vernaculaires
-L’Azuré platiné se nomme en anglais Mother-of-Pearl Blue et en espagnol Niña de Nácar.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_platin%C3%A9</t>
+          <t>Azuré_platiné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est très clair, avec juste un reflet beige bleuté bordé d'une fine ligne grise et ligne marginale de petits points gris, celui de la femelle est marron, orné d'une ligne marginale de larges macules orange qui borde les postérieures et une partie des antérieures. Les deux ont une frange blanche.
-Leur revers est ocre clair marqué d'une ligne marginale de lunules blanches surmontées d'orange, et orné d'une ligne de points noirs cerclés de blanc très marqués aux antérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré platiné se nomme en anglais Mother-of-Pearl Blue et en espagnol Niña de Nácar.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_platin%C3%A9</t>
+          <t>Azuré_platiné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles sont soignées par des fourmis, Tapinona nigerrinum[1].
-Période de vol et hivernation
-Il hiverne à l'état de jeune chenille.
-Il vole en une génération entre avril et août, en juillet dans l'Ariège[1].
-Plantes hôtes
-Sa plante hôte est Anthyllis vulneraria[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est très clair, avec juste un reflet beige bleuté bordé d'une fine ligne grise et ligne marginale de petits points gris, celui de la femelle est marron, orné d'une ligne marginale de larges macules orange qui borde les postérieures et une partie des antérieures. Les deux ont une frange blanche.
+Leur revers est ocre clair marqué d'une ligne marginale de lunules blanches surmontées d'orange, et orné d'une ligne de points noirs cerclés de blanc très marqués aux antérieures.
 </t>
         </is>
       </c>
@@ -596,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_platin%C3%A9</t>
+          <t>Azuré_platiné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +626,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont soignées par des fourmis, Tapinona nigerrinum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_platiné</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_platin%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de jeune chenille.
+Il vole en une génération entre avril et août, en juillet dans l'Ariège.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_platiné</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_platin%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Anthyllis vulneraria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_platiné</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_platin%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Espagne (du sud vers le nord-est) et dans les Pyrénées.
-Biotope
-Il réside dans les lieux rocheux calcaires secs, broussailleux.
-Protection
-Le cas de Polyommatus nivescens n'est pas traité et signalé NT sur la liste IUCN[2]
-Il est protégé en Espagne[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_platiné</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_platin%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux rocheux calcaires secs, broussailleux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_platiné</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_platin%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cas de Polyommatus nivescens n'est pas traité et signalé NT sur la liste IUCN
+Il est protégé en Espagne.
 </t>
         </is>
       </c>
